--- a/level-1.xlsx
+++ b/level-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,15 +473,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>บริษัท เอส เค อี คอนซัลแตนท์ จำกัด (สำนักงานใหญ่) S.K.E CONSULTANS CO., LTD. 89/765 ม. 3 ต.บางศรีเมือง อ.เมือง จ.นนทบุรี 11000 โทร. 089-411-2332, 084-093-7444 Email:ske_2003@hotmail.com เลขทะเบียนการค้า 0125548009396 เลขประจำตัวเสียภาษี 0125548009396</t>
+          <t>บริษัท เอบีไอ เทสติ้ง เอ็นจิเนียริ่ง จำกัด ABI TESTING ENGINEERING CO.,LTD สำนักงานใหญ่เลขที่ 9/317 หมู่ที่ 3 ตำบลบางขนุน อำเภอบางกรวย จังหวัดนนทบุรี 11130 มือถือ 096 991 5545 Email : abitestingeng@gmail.com เลขประจำตัวผู้เสียภาษี 0 1255 66040 07 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>เรียน: บริษัท ลูก้า แอสเซท จำกัด (สำนักงานใหญ่)</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -490,15 +486,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>บริษัท เอส เค อี คอนซัลแตนท์ จำกัด (สำนักงานใหญ่) S.K.E CONSULTANS CO., LTD. 89/765 ม. 3 ต.บางศรีเมือง อ.เมือง จ.นนทบุรี 11000 โทร. 089-411-2332, 084-093-7444 Email:ske_2003@hotmail.com เลขทะเบียนการค้า 0125548009396 เลขประจำตัวเสียภาษี 0125548009396</t>
+          <t>เรียน: บริษัท ลูก้า แอสเซท จำกัอ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ที่อยู่: เลขที่ 6/8 ซอยอารีย์ 5 ถนนพหลโยธิน แขวงพญาไท เขต พญาไท กรุงเทพฯ 10700</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -507,15 +499,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>บริษัท เอส เค อี คอนซัลแตนท์ จำกัด (สำนักงานใหญ่) S.K.E CONSULTANS CO., LTD. 89/765 ม. 3 ต.บางศรีเมือง อ.เมือง จ.นนทบุรี 11000 โทร. 089-411-2332, 084-093-7444 Email:ske_2003@hotmail.com เลขทะเบียนการค้า 0125548009396 เลขประจำตัวเสียภาษี 0125548009396</t>
+          <t>ที่อยู่: เลขที่ 6/8 ซอยอารีย์ 5 ถนนพหลโยธิน แขวงพญาไท เขตพญาไท กรุงเทพมหานคร(สำนักงานใหญ่)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ATTN: คุณปัทมา 0621979566</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -524,126 +512,1103 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>บริษัท เอส เค อี คอนซัลแตนท์ จำกัด (สำนักงานใหญ่) S.K.E CONSULTANS CO., LTD. 89/765 ม. 3 ต.บางศรีเมือง อ.เมือง จ.นนทบุรี 11000 โทร. 089-411-2332, 084-093-7444 Email:ske_2003@hotmail.com เลขทะเบียนการค้า 0125548009396 เลขประจำตัวเสียภาษี 0125548009396</t>
+          <t>ATTN: ผู้จัดการโครงการ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>โครงการ: ซอยเพชรพระราม 3 กรุงเทพฯ</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ค่าบริการตรวจสอบเสาเข็ม (Seismic Test)</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>113</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ต้น</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>150</v>
-      </c>
-      <c r="G6" t="n">
-        <v>16950</v>
-      </c>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>โครงการ: เอกมัย ซอยเพชรพระราม 3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>งานบริการทดสอบ Dynamic Load T</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>เหมา</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>23000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>23000</v>
-      </c>
+          <t>Dynamic Load Test</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>1.1</v>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>– ราคานี้รวมเครนพร้อมตุ้มทดสอบ</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>ค่าบริการทดสอบกำลังรับน้ำหนักของเสาเข็มโดยวิธี Dynamic Load Test</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ต้น</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5,000.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5,000.00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>1.2</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ราคารวม</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>39950</v>
+          <t>ค่าบริการรถเครน+ลูกตุ้มเหล็ก</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>งาน</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>16,000.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>16,000.00</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>1.3</v>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ภาษีมูลค่าเพิ่ม 7%</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>2796.5</v>
-      </c>
+          <t>รายงานผลการทดสอบ+รับรองผลโดยสามัญวิศวกร</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>งาน</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>รวมแล้ว</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ยอดรวมทั้งสิ้น</t>
+          <t>Seismic Test</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>42746.5</v>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ค่าบริการทดสอบความสมบูรณ์ของเสาเข็มด้วยวิธี Seismic Test</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>113</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ต้น</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>13,560.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>รายงานผลการทดสอบ+รับรองผลโดยสามัญวิศวกร</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>งาน</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>รวมแล้ว</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ราคารวม</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>34,560.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ภาษีมูลค่าเพิ่ม 7%</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2,419.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ยอดรวมทั้งสิ้น</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>36,979.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>บริษัท บี.บี.เค ไพล์เทสติ้ง จำกัด 88/18 หมู่ที่ 7 ตำบลลาดหลุมแก้ว อำเภอลาดหลุมแก้ว จังหวัดปทุมธานี 12140 Tel. 02-030-2456 Mobile. 095-827-8535</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>บริษัท ลูก้า แอสเซท จำกัด</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>6/8 ซอยอารีย์ 5 ถนนพหลโยธิน แขวงพญาไท เขตพญาไท กรุงเทพฯ 10400</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>คุณปัทมา 062-1979566</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>อาคารพักอาศัย 4 ชั้นครึ่ง 4 คูหา Luka Residence</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Dynamic Load Test Service</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Pile</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6,000.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>6,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ค่าบริการรถเครน พร้อมลูกตุ้มเหล็ก (ราคาต่อวัน )</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>วัน</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>15,000.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>15,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Seismic Integrity Test Service</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>113</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Piles</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>16,950.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>TRAVEL FREE (OPTION)</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Option</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ราคารวม</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>37,950.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>หักส่วนลด</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>รวมเงินหลังหักส่วนลด</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>35,950.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ภาษีมูลค่าเพิ่ม 7%</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2,516.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ยอดรวมทั้งสิ้น</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>38,466.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BOULTER STEWART LTD. สำนักงานใหญ่ : ยูนิต 1206 ชั้น 12 อาคารชาร์เตอร์ สแควร์ เลขที่ 152 ถนนสาทรเหนือ แขวงสีลม เขตบางรัก กรุงเทพมหานคร 10500 โทร : (662) 637-9950-1 แฟกซ์ : (662) 637-9950-1 เลขประจำตัวผู้เสียภาษี : 0105541046822</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ชื่อลูกค้า: บริษัท ลูก้า แอสเซท จำกัด (สำนักงานใหญ่)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ที่อยู่: 6/8 ซ.อารีย์ 5 ถ.พหลโยธิน แขวงพญาไท เขตพญาไท กรุงเทพฯ 10400</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ATTN: คุณปัทมา</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>โครงการ: RE: Pile Test / ซ.เนินทรัพย์ 2, แขวงบางกะปิ, เขตห้วยขวาง, กรุงเทพฯ 10310</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>RE: Pile Test / ซ.เนินทรัพย์ 2, แขวงบางกะปิ, เขตห้วยขวาง, กรุงเทพฯ 10310</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>งานทดสอบเสาเข็ม Pile Integrity Test</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>- ค่าทดสอบเสาเข็ม Seismic Test 1-30 ต้น</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>113</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ต้น</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>100</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>– ทดสอบอย่างน้อย 30 ต้น/ครั้ง หากทดสอบน้อยกว่า คิด 3,000 บาท/ครั้ง</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>งานทดสอบเสาเข็ม Pile Dynamic Load Test</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>- ค่าทดสอบเสาเข็ม Pile Dynamic Load Test</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ต้น</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>- งานจัดเตรียมรถเครน + ตุ้มน้ำหนัก 3-4 ตัน พร้อมตะเกียบล้อค</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>วัน</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>(Discount for N.2)</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Dis</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>-1300</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>(I Pile size 0.22x0.22x26 Load 25 ton SF 2.5 - 13 Nos)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>(I Pile size 0.26x0.26x26 Load 35 ton SF 2.5 - 101 Nos)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>หมายเหตุ: *** Seismic Test + Dynamic Load Test</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>- ผู้ว่าจ้างจัดเตรียมเสาเข็มให้พร้อมทดสอบ</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>- ราคานี้รวมรายงานผลการทดสอบ 2 ฉบับ + วิศวกรโยธาระดับสามัญ (สย.) เซ็นต์รับรอง</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>- งานทดสอบเสาเข็มโดยใช้เครนในการทดสอบ ผู้ว่าจ้างต้อง Stand by รถแบคโฮ ในการช่วยประคองรางตะเกียบ</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ราคารวม</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ภาษีมูลค่าเพิ่ม 7%</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ยอดรวมทั้งสิ้น</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>35310</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>S.K.E CONSULTANS CO., LTD.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>89/765 ม. 3 ต.บางศรีเมือง อ.เมือง จ.นนทบุรี 11000 โทร. 089-411-2332, 084-093-7444 Email:ske_2003@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>เลขทะเบียนการค้า 0125548009396</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>เลขประจำตัวเสียภาษี 0125548009396</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Recipient Company: บริษัท ลูก้า แอสเซท จำกัด (สำนักงานใหญ่)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Recipient Address: เลขที่ 6/8 ซอยอารีย์ 5 ถนนพหลโยธิน แขวงพญาไท เขต พญาไท กรุงเทพฯ 10700</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Recipient Attention: คุณปัทมา 0621979566</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Project: ซอยเพชรพระราม 3 กรุงเทพฯ</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ค่าบริการตรวจสอบเสาเข็ม (Seismic Test)</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>113</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>ต้น</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>16,950.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>งานบริการทดสอบ Dynamic Load T</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>เหมา</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>23,000.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>23,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>- ราคานี้รวมเครนพร้อมตุ้มทดสอบ</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>รวมราคาสินค้า / Total Amount</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>39,950.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ส่วนลด / Discount</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>จำนวนเงินหักส่วนลด/Amount</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>39,950.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ภาษี/V.AT</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2,796.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>จำนวนเงินสุทธิ / Grand Amount</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>42,746.50</t>
+        </is>
       </c>
     </row>
   </sheetData>
